--- a/会社用本数前提合わせ.xlsx
+++ b/会社用本数前提合わせ.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D6E35D-E399-447E-8389-B77DEC71EE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0089C-F074-4C15-AB61-3481CCF50BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{AE076684-99C4-4902-A479-61AF34C913FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{AE076684-99C4-4902-A479-61AF34C913FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="本数前提合わせる作業" sheetId="1" r:id="rId1"/>
+    <sheet name="①" sheetId="2" r:id="rId2"/>
+    <sheet name="②" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,58 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>山下将平</author>
+  </authors>
+  <commentList>
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{3B44C085-0209-49E9-B679-FE06A973DB54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">1次リクエスト本数とそろえる
+※1項目(TOエリア✖キャリア✖C/H)については1次の粒度にそろえる
+※項目について
+　　＜左結合＞1次データ⋀実績データ
+　　・1次に存在し実績に存在しないレーンについては追加される
+　　・1次に存在しなく実績に存在するレーンについては消去
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{A332B983-A197-4675-8C1D-689ADA6A394E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>金額規模については、単価の比率で算出する
+1次金額規模に対し、実績単価/1次単価を掛ける。
+※実績単価が０の場合は、1次金額規模をそのまま入力する。
+※IF 実績金額規模=0 THEN 1次金額規模($)
+   ELSE 1次金額規模×(実績単価/1次単価)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="97">
   <si>
     <t>FROM国港</t>
     <rPh sb="4" eb="6">
@@ -299,12 +351,260 @@
     <t>BB × ★/①</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUTOUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷本数</t>
+    <rPh sb="0" eb="4">
+      <t>シュッカホンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額規模</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額規模(\)</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>為替マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>カワセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2次①</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USLAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPTYO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KRICN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NLRTM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VNHPH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>THLCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHMNL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KWE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Canon Request(4096D)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Canon Request(4096RD)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数割り当て(4096D)</t>
+    <rPh sb="0" eb="3">
+      <t>ホンスウワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数割り当て(4096RD)</t>
+    <rPh sb="0" eb="3">
+      <t>ホンスウワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア重複数</t>
+    <rPh sb="3" eb="5">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4096Dレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4096RDレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FROMエリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOエリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジア</t>
+  </si>
+  <si>
+    <t>アジア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北米西岸</t>
+    <rPh sb="0" eb="4">
+      <t>ホクベイセイガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欧州</t>
+    <rPh sb="0" eb="2">
+      <t>オウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Out-Out本数含む</t>
+    <rPh sb="8" eb="11">
+      <t>ホンスウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※SPOT含まない</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1次金額規模($)</t>
+    <rPh sb="1" eb="6">
+      <t>ジキンガクキボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額規模改(\)</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額規模改($)</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷本数改</t>
+    <rPh sb="0" eb="2">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜本数前提＞</t>
+    <rPh sb="1" eb="5">
+      <t>ホンスウゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜データ＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +636,47 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +689,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -396,13 +801,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,15 +1018,205 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFE5E5FF"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FFFFDDDD"/>
+      <color rgb="FFFFFBFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -448,6 +1226,311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>261098</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129584F-3AC3-DD01-41FE-CEDAD9A489B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13346206" y="4000500"/>
+          <a:ext cx="205068" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>317126</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1066297-1CA9-456B-A0F9-DD0542DA0D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13791423" y="4095750"/>
+          <a:ext cx="205068" cy="1872676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>154553</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>359621</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>46805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AC2392-6931-44A0-E76C-C113FC7F5EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14192938" y="4212980"/>
+          <a:ext cx="205068" cy="1768633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>94473</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>299541</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A63BB2E-1366-6C97-40FC-77D5839BBC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14638415" y="4264269"/>
+          <a:ext cx="205068" cy="1724670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>71026</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>276094</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>46804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD33746F-9B08-42C5-33B7-9A4B1EAA2DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15120526" y="4615961"/>
+          <a:ext cx="205068" cy="1365651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CADDFF-0B9F-43FA-BEB0-15E7DED0765A}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1079,4 +2162,3863 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2303E0-55C5-4734-AE46-F1471F7F86F3}">
+  <dimension ref="B2:U32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="11.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="11" customWidth="1"/>
+    <col min="5" max="7" width="9" style="11"/>
+    <col min="8" max="8" width="10.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="13" width="24.5" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="21.875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="12" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="13.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="12.125" style="11" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="12.375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="12.375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="13">
+        <v>100</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="13">
+        <v>100000</v>
+      </c>
+      <c r="T3" s="13">
+        <v>147</v>
+      </c>
+      <c r="U3" s="15">
+        <f>S3*T3</f>
+        <v>14700000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="17">
+        <v>200</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="17">
+        <v>300000</v>
+      </c>
+      <c r="T4" s="17">
+        <v>147</v>
+      </c>
+      <c r="U4" s="19">
+        <f t="shared" ref="U4:U6" si="0">S4*T4</f>
+        <v>44100000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="17">
+        <v>350</v>
+      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="17">
+        <v>50000</v>
+      </c>
+      <c r="T5" s="17">
+        <v>147</v>
+      </c>
+      <c r="U5" s="19">
+        <f t="shared" si="0"/>
+        <v>7350000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="17">
+        <v>600</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="17">
+        <v>7000</v>
+      </c>
+      <c r="T6" s="17">
+        <v>150</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" si="0"/>
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2</v>
+      </c>
+      <c r="K9" s="17">
+        <v>200</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="20">
+        <v>5000</v>
+      </c>
+      <c r="P9" s="20">
+        <v>2000</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>K9+L9</f>
+        <v>200</v>
+      </c>
+      <c r="R9" s="17">
+        <v>150</v>
+      </c>
+      <c r="S9" s="17">
+        <f>U9*R9</f>
+        <v>150000000</v>
+      </c>
+      <c r="T9" s="18"/>
+      <c r="U9" s="19">
+        <f>(K9*O9)+(L9*P9)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="17">
+        <v>300</v>
+      </c>
+      <c r="L10" s="17">
+        <v>100</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="20">
+        <v>3000</v>
+      </c>
+      <c r="P10" s="20">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" ref="Q10:Q12" si="1">K10+L10</f>
+        <v>400</v>
+      </c>
+      <c r="R10" s="17">
+        <v>150</v>
+      </c>
+      <c r="S10" s="17">
+        <f t="shared" ref="S10:S12" si="2">U10*R10</f>
+        <v>150000000</v>
+      </c>
+      <c r="T10" s="18"/>
+      <c r="U10" s="19">
+        <f t="shared" ref="U10:U12" si="3">(K10*O10)+(L10*P10)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="17">
+        <v>5</v>
+      </c>
+      <c r="K11" s="17">
+        <v>800</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="20">
+        <v>5000</v>
+      </c>
+      <c r="P11" s="20">
+        <v>2000</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="R11" s="17">
+        <v>150</v>
+      </c>
+      <c r="S11" s="17">
+        <f t="shared" si="2"/>
+        <v>600000000</v>
+      </c>
+      <c r="T11" s="18"/>
+      <c r="U11" s="19">
+        <f t="shared" si="3"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="17">
+        <v>3</v>
+      </c>
+      <c r="K12" s="17">
+        <v>100</v>
+      </c>
+      <c r="L12" s="17">
+        <v>100</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="20">
+        <v>4000</v>
+      </c>
+      <c r="P12" s="20">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R12" s="17">
+        <v>150</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" si="2"/>
+        <v>75000000</v>
+      </c>
+      <c r="T12" s="18"/>
+      <c r="U12" s="19">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="18"/>
+      <c r="U13" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="17">
+        <v>2</v>
+      </c>
+      <c r="K15" s="17">
+        <v>180</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="20">
+        <v>4000</v>
+      </c>
+      <c r="P15" s="20">
+        <v>2000</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" ref="Q15:Q18" si="4">K15+L15</f>
+        <v>180</v>
+      </c>
+      <c r="R15" s="17">
+        <v>150</v>
+      </c>
+      <c r="S15" s="17">
+        <f>U15*R15</f>
+        <v>108000000</v>
+      </c>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19">
+        <f>(K15*O15)+(L15*P15)</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17">
+        <v>320</v>
+      </c>
+      <c r="L16" s="17">
+        <v>150</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20">
+        <v>2500</v>
+      </c>
+      <c r="P16" s="20">
+        <v>1000</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+      <c r="R16" s="17">
+        <v>150</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" ref="S16:S18" si="5">U16*R16</f>
+        <v>142500000</v>
+      </c>
+      <c r="T16" s="18"/>
+      <c r="U16" s="19">
+        <f t="shared" ref="U16:U18" si="6">(K16*O16)+(L16*P16)</f>
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="17">
+        <v>5</v>
+      </c>
+      <c r="K17" s="17">
+        <v>600</v>
+      </c>
+      <c r="L17" s="17">
+        <v>200</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20">
+        <v>5000</v>
+      </c>
+      <c r="P17" s="20">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="R17" s="17">
+        <v>150</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="5"/>
+        <v>480000000</v>
+      </c>
+      <c r="T17" s="18"/>
+      <c r="U17" s="19">
+        <f t="shared" si="6"/>
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="17">
+        <v>3</v>
+      </c>
+      <c r="K18" s="17">
+        <v>100</v>
+      </c>
+      <c r="L18" s="17">
+        <v>100</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="20">
+        <v>3000</v>
+      </c>
+      <c r="P18" s="20">
+        <v>1000</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="R18" s="17">
+        <v>150</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="5"/>
+        <v>60000000</v>
+      </c>
+      <c r="T18" s="18"/>
+      <c r="U18" s="19">
+        <f t="shared" si="6"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" s="18"/>
+      <c r="U19" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="18"/>
+      <c r="U20" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="17">
+        <v>2</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="17">
+        <v>200</v>
+      </c>
+      <c r="N21" s="17">
+        <v>100</v>
+      </c>
+      <c r="O21" s="17">
+        <v>4000</v>
+      </c>
+      <c r="P21" s="17">
+        <v>2000</v>
+      </c>
+      <c r="Q21" s="17">
+        <f>M21+N21</f>
+        <v>300</v>
+      </c>
+      <c r="R21" s="17">
+        <v>150</v>
+      </c>
+      <c r="S21" s="17">
+        <f>U21*R21</f>
+        <v>150000000</v>
+      </c>
+      <c r="T21" s="18"/>
+      <c r="U21" s="19">
+        <f>(M21*O21)+(N21*P21)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="17">
+        <v>600</v>
+      </c>
+      <c r="N22" s="17">
+        <v>50</v>
+      </c>
+      <c r="O22" s="17">
+        <v>2500</v>
+      </c>
+      <c r="P22" s="17">
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="17">
+        <f t="shared" ref="Q22:Q24" si="7">M22+N22</f>
+        <v>650</v>
+      </c>
+      <c r="R22" s="17">
+        <v>150</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" ref="S22:S24" si="8">U22*R22</f>
+        <v>232500000</v>
+      </c>
+      <c r="T22" s="18"/>
+      <c r="U22" s="19">
+        <f t="shared" ref="U22:U24" si="9">(M22*O22)+(N22*P22)</f>
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="17">
+        <v>5</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="17">
+        <v>700</v>
+      </c>
+      <c r="N23" s="17">
+        <v>100</v>
+      </c>
+      <c r="O23" s="17">
+        <v>5000</v>
+      </c>
+      <c r="P23" s="17">
+        <v>1000</v>
+      </c>
+      <c r="Q23" s="17">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="R23" s="17">
+        <v>150</v>
+      </c>
+      <c r="S23" s="17">
+        <f t="shared" si="8"/>
+        <v>540000000</v>
+      </c>
+      <c r="T23" s="18"/>
+      <c r="U23" s="19">
+        <f t="shared" si="9"/>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="17">
+        <v>3</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="17">
+        <v>300</v>
+      </c>
+      <c r="N24" s="17">
+        <v>200</v>
+      </c>
+      <c r="O24" s="17">
+        <v>3000</v>
+      </c>
+      <c r="P24" s="17">
+        <v>1000</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="R24" s="17">
+        <v>150</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" si="8"/>
+        <v>165000000</v>
+      </c>
+      <c r="T24" s="18"/>
+      <c r="U24" s="19">
+        <f t="shared" si="9"/>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25" s="18"/>
+      <c r="U25" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" s="18"/>
+      <c r="U26" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="17">
+        <v>2</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="17">
+        <v>200</v>
+      </c>
+      <c r="N27" s="17">
+        <v>100</v>
+      </c>
+      <c r="O27" s="17">
+        <v>4000</v>
+      </c>
+      <c r="P27" s="17">
+        <v>2000</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" ref="Q27:Q30" si="10">M27+N27</f>
+        <v>300</v>
+      </c>
+      <c r="R27" s="17">
+        <v>150</v>
+      </c>
+      <c r="S27" s="17">
+        <f t="shared" ref="S27:S30" si="11">U27*R27</f>
+        <v>150000000</v>
+      </c>
+      <c r="T27" s="18"/>
+      <c r="U27" s="19">
+        <f t="shared" ref="U27:U30" si="12">(M27*O27)+(N27*P27)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="17">
+        <v>600</v>
+      </c>
+      <c r="N28" s="17">
+        <v>50</v>
+      </c>
+      <c r="O28" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P28" s="17">
+        <v>1000</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="10"/>
+        <v>650</v>
+      </c>
+      <c r="R28" s="17">
+        <v>150</v>
+      </c>
+      <c r="S28" s="17">
+        <f t="shared" si="11"/>
+        <v>187500000</v>
+      </c>
+      <c r="T28" s="18"/>
+      <c r="U28" s="19">
+        <f t="shared" si="12"/>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="17">
+        <v>5</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="17">
+        <v>600</v>
+      </c>
+      <c r="N29" s="17">
+        <v>100</v>
+      </c>
+      <c r="O29" s="17">
+        <v>4000</v>
+      </c>
+      <c r="P29" s="17">
+        <v>500</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="10"/>
+        <v>700</v>
+      </c>
+      <c r="R29" s="17">
+        <v>150</v>
+      </c>
+      <c r="S29" s="17">
+        <f t="shared" si="11"/>
+        <v>367500000</v>
+      </c>
+      <c r="T29" s="18"/>
+      <c r="U29" s="19">
+        <f t="shared" si="12"/>
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="17">
+        <v>3</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="17">
+        <v>300</v>
+      </c>
+      <c r="N30" s="17">
+        <v>200</v>
+      </c>
+      <c r="O30" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P30" s="17">
+        <v>1000</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="10"/>
+        <v>500</v>
+      </c>
+      <c r="R30" s="17">
+        <v>150</v>
+      </c>
+      <c r="S30" s="17">
+        <f t="shared" si="11"/>
+        <v>120000000</v>
+      </c>
+      <c r="T30" s="18"/>
+      <c r="U30" s="19">
+        <f t="shared" si="12"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B31" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31" s="18"/>
+      <c r="U31" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="T32" s="32"/>
+      <c r="U32" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C9ED1C-B75B-46BE-A940-1CC4ECC264BB}">
+  <dimension ref="B2:AE35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL21" sqref="AL21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="11.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11.5" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.875" style="11" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="6" max="6" width="8.25" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="9" style="11"/>
+    <col min="9" max="9" width="14.75" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="12" width="24.5" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="21.875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="12" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="13.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.125" style="11" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="13.375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="12.375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.875" style="11" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.875" style="48" customWidth="1"/>
+    <col min="23" max="23" width="16.75" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.875" style="48" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9" style="10"/>
+    <col min="26" max="26" width="12" style="10" customWidth="1"/>
+    <col min="27" max="28" width="4.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>150</v>
+      </c>
+      <c r="R3" s="43">
+        <v>220500000</v>
+      </c>
+      <c r="S3" s="34">
+        <v>147</v>
+      </c>
+      <c r="T3" s="50">
+        <f>R3/S3</f>
+        <v>1500000</v>
+      </c>
+      <c r="U3" s="41">
+        <v>200</v>
+      </c>
+      <c r="V3" s="65">
+        <v>1000000</v>
+      </c>
+      <c r="W3" s="56">
+        <f>X3*Q3</f>
+        <v>675000000</v>
+      </c>
+      <c r="X3" s="57">
+        <f>T3*( (T3/P3)/(V3/U3) )</f>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>150</v>
+      </c>
+      <c r="R4" s="44">
+        <v>294000000</v>
+      </c>
+      <c r="S4" s="20">
+        <v>147</v>
+      </c>
+      <c r="T4" s="51">
+        <f t="shared" ref="T4:T6" si="0">R4/S4</f>
+        <v>2000000</v>
+      </c>
+      <c r="U4" s="42">
+        <v>400</v>
+      </c>
+      <c r="V4" s="66">
+        <v>1000000</v>
+      </c>
+      <c r="W4" s="58">
+        <f t="shared" ref="W4:W6" si="1">X4*Q4</f>
+        <v>1200000000</v>
+      </c>
+      <c r="X4" s="59">
+        <f t="shared" ref="X4:X7" si="2">T4*(T4/P4)/(V4/U4)</f>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18">
+        <v>150</v>
+      </c>
+      <c r="R5" s="63"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="42">
+        <v>800</v>
+      </c>
+      <c r="V5" s="66">
+        <v>4000000</v>
+      </c>
+      <c r="W5" s="58">
+        <f t="shared" si="1"/>
+        <v>600000000</v>
+      </c>
+      <c r="X5" s="68">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20">
+        <v>600</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>150</v>
+      </c>
+      <c r="R6" s="44">
+        <v>75000000</v>
+      </c>
+      <c r="S6" s="20">
+        <v>150</v>
+      </c>
+      <c r="T6" s="51">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="U6" s="42">
+        <v>200</v>
+      </c>
+      <c r="V6" s="66">
+        <v>500000</v>
+      </c>
+      <c r="W6" s="58">
+        <f t="shared" si="1"/>
+        <v>25000000.000000004</v>
+      </c>
+      <c r="X6" s="59">
+        <f t="shared" si="2"/>
+        <v>166666.66666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17">
+        <v>200</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="20">
+        <v>5000</v>
+      </c>
+      <c r="O9" s="20">
+        <v>2000</v>
+      </c>
+      <c r="P9" s="17">
+        <f>J9+K9</f>
+        <v>200</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>150</v>
+      </c>
+      <c r="R9" s="46">
+        <f>T9*Q9</f>
+        <v>150000000</v>
+      </c>
+      <c r="S9" s="18"/>
+      <c r="T9" s="52">
+        <f>(J9*N9)+(K9*O9)</f>
+        <v>1000000</v>
+      </c>
+      <c r="U9" s="36">
+        <f>J9+K9</f>
+        <v>200</v>
+      </c>
+      <c r="V9" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="W9" s="58">
+        <v>150000000</v>
+      </c>
+      <c r="X9" s="58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>300</v>
+      </c>
+      <c r="K10" s="17">
+        <v>100</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O10" s="20">
+        <v>1000</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" ref="P10:P12" si="3">J10+K10</f>
+        <v>400</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>150</v>
+      </c>
+      <c r="R10" s="46">
+        <f t="shared" ref="R10:R12" si="4">T10*Q10</f>
+        <v>150000000</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="52">
+        <f>(J10*N10)+(K10*O10)</f>
+        <v>1000000</v>
+      </c>
+      <c r="U10" s="36">
+        <f t="shared" ref="U10:U12" si="5">J10+K10</f>
+        <v>400</v>
+      </c>
+      <c r="V10" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="W10" s="58">
+        <v>150000000</v>
+      </c>
+      <c r="X10" s="58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="17">
+        <v>5</v>
+      </c>
+      <c r="J11" s="17">
+        <v>800</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="20">
+        <v>5000</v>
+      </c>
+      <c r="O11" s="20">
+        <v>2000</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>150</v>
+      </c>
+      <c r="R11" s="46">
+        <f t="shared" si="4"/>
+        <v>600000000</v>
+      </c>
+      <c r="S11" s="18"/>
+      <c r="T11" s="52">
+        <f>(J11*N11)+(K11*O11)</f>
+        <v>4000000</v>
+      </c>
+      <c r="U11" s="36">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="V11" s="60">
+        <v>4000000</v>
+      </c>
+      <c r="W11" s="58">
+        <v>600000000</v>
+      </c>
+      <c r="X11" s="58">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="17">
+        <v>3</v>
+      </c>
+      <c r="J12" s="17">
+        <v>100</v>
+      </c>
+      <c r="K12" s="17">
+        <v>100</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20">
+        <v>4000</v>
+      </c>
+      <c r="O12" s="20">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="17">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>150</v>
+      </c>
+      <c r="R12" s="46">
+        <f t="shared" si="4"/>
+        <v>75000000</v>
+      </c>
+      <c r="S12" s="18"/>
+      <c r="T12" s="52">
+        <f>(J12*N12)+(K12*O12)</f>
+        <v>500000</v>
+      </c>
+      <c r="U12" s="36">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="V12" s="60">
+        <v>500000</v>
+      </c>
+      <c r="W12" s="58">
+        <v>75000000</v>
+      </c>
+      <c r="X12" s="58">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="18"/>
+      <c r="T13" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="T14" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="17">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17">
+        <v>180</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="20">
+        <v>4000</v>
+      </c>
+      <c r="O15" s="20">
+        <v>2000</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" ref="P15:P18" si="6">J15+K15</f>
+        <v>180</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>150</v>
+      </c>
+      <c r="R15" s="46">
+        <f>T15*Q15</f>
+        <v>108000000</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="52">
+        <f>(J15*N15)+(K15*O15)</f>
+        <v>720000</v>
+      </c>
+      <c r="U15" s="18">
+        <f t="shared" ref="U15:U18" si="7">J15+K15</f>
+        <v>180</v>
+      </c>
+      <c r="V15" s="61"/>
+      <c r="W15" s="46">
+        <v>108000000</v>
+      </c>
+      <c r="X15" s="46">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <v>320</v>
+      </c>
+      <c r="K16" s="17">
+        <v>150</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="20">
+        <v>2500</v>
+      </c>
+      <c r="O16" s="20">
+        <v>1000</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>150</v>
+      </c>
+      <c r="R16" s="46">
+        <f t="shared" ref="R16:R18" si="8">T16*Q16</f>
+        <v>142500000</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="T16" s="52">
+        <f>(J16*N16)+(K16*O16)</f>
+        <v>950000</v>
+      </c>
+      <c r="U16" s="18">
+        <f t="shared" si="7"/>
+        <v>470</v>
+      </c>
+      <c r="V16" s="61"/>
+      <c r="W16" s="46">
+        <v>142500000</v>
+      </c>
+      <c r="X16" s="46">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="17">
+        <v>600</v>
+      </c>
+      <c r="K17" s="17">
+        <v>200</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="20">
+        <v>5000</v>
+      </c>
+      <c r="O17" s="20">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>150</v>
+      </c>
+      <c r="R17" s="46">
+        <f t="shared" si="8"/>
+        <v>480000000</v>
+      </c>
+      <c r="S17" s="18"/>
+      <c r="T17" s="52">
+        <f>(J17*N17)+(K17*O17)</f>
+        <v>3200000</v>
+      </c>
+      <c r="U17" s="18">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="V17" s="61"/>
+      <c r="W17" s="46">
+        <v>480000000</v>
+      </c>
+      <c r="X17" s="46">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="17">
+        <v>3</v>
+      </c>
+      <c r="J18" s="17">
+        <v>100</v>
+      </c>
+      <c r="K18" s="17">
+        <v>100</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O18" s="20">
+        <v>1000</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>150</v>
+      </c>
+      <c r="R18" s="46">
+        <f t="shared" si="8"/>
+        <v>60000000</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="T18" s="52">
+        <f>(J18*N18)+(K18*O18)</f>
+        <v>400000</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="V18" s="61"/>
+      <c r="W18" s="46">
+        <v>60000000</v>
+      </c>
+      <c r="X18" s="46">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S19" s="18"/>
+      <c r="T19" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" s="61"/>
+      <c r="W19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S20" s="18"/>
+      <c r="T20" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="61"/>
+      <c r="W20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z20" s="67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="17">
+        <v>2</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="17">
+        <v>200</v>
+      </c>
+      <c r="M21" s="17">
+        <v>100</v>
+      </c>
+      <c r="N21" s="17">
+        <v>4000</v>
+      </c>
+      <c r="O21" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P21" s="17">
+        <f>L21+M21</f>
+        <v>300</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>150</v>
+      </c>
+      <c r="R21" s="46">
+        <f>T21*Q21</f>
+        <v>150000000</v>
+      </c>
+      <c r="S21" s="18"/>
+      <c r="T21" s="52">
+        <f>(L21*N21)+(M21*O21)</f>
+        <v>1000000</v>
+      </c>
+      <c r="U21" s="18">
+        <f>L21+M21</f>
+        <v>300</v>
+      </c>
+      <c r="V21" s="61"/>
+      <c r="W21" s="46">
+        <v>150000000</v>
+      </c>
+      <c r="X21" s="46">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="17">
+        <v>600</v>
+      </c>
+      <c r="M22" s="17">
+        <v>50</v>
+      </c>
+      <c r="N22" s="17">
+        <v>2500</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" ref="P22:P24" si="9">L22+M22</f>
+        <v>650</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>150</v>
+      </c>
+      <c r="R22" s="46">
+        <f t="shared" ref="R22:R24" si="10">T22*Q22</f>
+        <v>232500000</v>
+      </c>
+      <c r="S22" s="18"/>
+      <c r="T22" s="52">
+        <f>(L22*N22)+(M22*O22)</f>
+        <v>1550000</v>
+      </c>
+      <c r="U22" s="18">
+        <f t="shared" ref="U22:U24" si="11">L22+M22</f>
+        <v>650</v>
+      </c>
+      <c r="V22" s="61"/>
+      <c r="W22" s="46">
+        <v>232500000</v>
+      </c>
+      <c r="X22" s="46">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="17">
+        <v>5</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17">
+        <v>700</v>
+      </c>
+      <c r="M23" s="17">
+        <v>100</v>
+      </c>
+      <c r="N23" s="17">
+        <v>5000</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>150</v>
+      </c>
+      <c r="R23" s="46">
+        <f t="shared" si="10"/>
+        <v>540000000</v>
+      </c>
+      <c r="S23" s="18"/>
+      <c r="T23" s="52">
+        <f>(L23*N23)+(M23*O23)</f>
+        <v>3600000</v>
+      </c>
+      <c r="U23" s="18">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="V23" s="61"/>
+      <c r="W23" s="46">
+        <v>540000000</v>
+      </c>
+      <c r="X23" s="46">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="17">
+        <v>3</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="17">
+        <v>300</v>
+      </c>
+      <c r="M24" s="17">
+        <v>200</v>
+      </c>
+      <c r="N24" s="17">
+        <v>3000</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>150</v>
+      </c>
+      <c r="R24" s="46">
+        <f t="shared" si="10"/>
+        <v>165000000</v>
+      </c>
+      <c r="S24" s="18"/>
+      <c r="T24" s="52">
+        <f>(L24*N24)+(M24*O24)</f>
+        <v>1100000</v>
+      </c>
+      <c r="U24" s="18">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="V24" s="61"/>
+      <c r="W24" s="46">
+        <v>165000000</v>
+      </c>
+      <c r="X24" s="46">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" s="18"/>
+      <c r="T25" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="61"/>
+      <c r="W25" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S26" s="18"/>
+      <c r="T26" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="61"/>
+      <c r="W26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="17">
+        <v>2</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="17">
+        <v>200</v>
+      </c>
+      <c r="M27" s="17">
+        <v>100</v>
+      </c>
+      <c r="N27" s="17">
+        <v>4000</v>
+      </c>
+      <c r="O27" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" ref="P27:P30" si="12">L27+M27</f>
+        <v>300</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>150</v>
+      </c>
+      <c r="R27" s="46">
+        <f t="shared" ref="R27:R30" si="13">T27*Q27</f>
+        <v>150000000</v>
+      </c>
+      <c r="S27" s="18"/>
+      <c r="T27" s="52">
+        <f t="shared" ref="T27:T30" si="14">(L27*N27)+(M27*O27)</f>
+        <v>1000000</v>
+      </c>
+      <c r="U27" s="18">
+        <f>L27+M27</f>
+        <v>300</v>
+      </c>
+      <c r="V27" s="61"/>
+      <c r="W27" s="46">
+        <v>150000000</v>
+      </c>
+      <c r="X27" s="46">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="17">
+        <v>600</v>
+      </c>
+      <c r="M28" s="17">
+        <v>50</v>
+      </c>
+      <c r="N28" s="17">
+        <v>2000</v>
+      </c>
+      <c r="O28" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P28" s="17">
+        <f t="shared" si="12"/>
+        <v>650</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>150</v>
+      </c>
+      <c r="R28" s="46">
+        <f t="shared" si="13"/>
+        <v>187500000</v>
+      </c>
+      <c r="S28" s="18"/>
+      <c r="T28" s="52">
+        <f t="shared" si="14"/>
+        <v>1250000</v>
+      </c>
+      <c r="U28" s="18">
+        <f t="shared" ref="U28:U30" si="15">L28+M28</f>
+        <v>650</v>
+      </c>
+      <c r="V28" s="61"/>
+      <c r="W28" s="46">
+        <v>187500000</v>
+      </c>
+      <c r="X28" s="46">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="17">
+        <v>5</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="17">
+        <v>600</v>
+      </c>
+      <c r="M29" s="17">
+        <v>100</v>
+      </c>
+      <c r="N29" s="17">
+        <v>4000</v>
+      </c>
+      <c r="O29" s="17">
+        <v>500</v>
+      </c>
+      <c r="P29" s="17">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>150</v>
+      </c>
+      <c r="R29" s="46">
+        <f t="shared" si="13"/>
+        <v>367500000</v>
+      </c>
+      <c r="S29" s="18"/>
+      <c r="T29" s="52">
+        <f t="shared" si="14"/>
+        <v>2450000</v>
+      </c>
+      <c r="U29" s="18">
+        <f t="shared" si="15"/>
+        <v>700</v>
+      </c>
+      <c r="V29" s="61"/>
+      <c r="W29" s="46">
+        <v>367500000</v>
+      </c>
+      <c r="X29" s="46">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="17">
+        <v>3</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="17">
+        <v>300</v>
+      </c>
+      <c r="M30" s="17">
+        <v>200</v>
+      </c>
+      <c r="N30" s="17">
+        <v>2000</v>
+      </c>
+      <c r="O30" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>150</v>
+      </c>
+      <c r="R30" s="46">
+        <f t="shared" si="13"/>
+        <v>120000000</v>
+      </c>
+      <c r="S30" s="18"/>
+      <c r="T30" s="52">
+        <f t="shared" si="14"/>
+        <v>800000</v>
+      </c>
+      <c r="U30" s="18">
+        <f t="shared" si="15"/>
+        <v>500</v>
+      </c>
+      <c r="V30" s="61"/>
+      <c r="W30" s="46">
+        <v>120000000</v>
+      </c>
+      <c r="X30" s="46">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B31" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="R31" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S31" s="18"/>
+      <c r="T31" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V31" s="61"/>
+      <c r="W31" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="R32" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="S32" s="32"/>
+      <c r="T32" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="U32" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="V32" s="62"/>
+      <c r="W32" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE32" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="Z33" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE33" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B34" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B35" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/会社用本数前提合わせ.xlsx
+++ b/会社用本数前提合わせ.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0089C-F074-4C15-AB61-3481CCF50BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E292826-6F7A-4520-838B-953E7E960886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{AE076684-99C4-4902-A479-61AF34C913FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{AE076684-99C4-4902-A479-61AF34C913FC}"/>
   </bookViews>
   <sheets>
     <sheet name="本数前提合わせる作業" sheetId="1" r:id="rId1"/>
     <sheet name="①" sheetId="2" r:id="rId2"/>
     <sheet name="②" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="162">
   <si>
     <t>FROM国港</t>
     <rPh sb="4" eb="6">
@@ -597,6 +599,1134 @@
   </si>
   <si>
     <t>＜データ＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１次</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２次①</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２次②</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ元</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT-OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジDB(24/5~25/2)
+を年換算</t>
+    <rPh sb="17" eb="20">
+      <t>ネンカンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１次提示レート表</t>
+    <rPh sb="1" eb="4">
+      <t>ジテイジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２次提示レート表</t>
+    <rPh sb="1" eb="4">
+      <t>ジテイジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終提示レート表</t>
+    <rPh sb="0" eb="4">
+      <t>サイシュウテイジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績使用レーン</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１次提示レーン</t>
+    <rPh sb="1" eb="4">
+      <t>ジテイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終提示レーン</t>
+    <rPh sb="0" eb="4">
+      <t>サイシュウテイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２次提示レーン</t>
+    <rPh sb="1" eb="4">
+      <t>ジテイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行起用業者</t>
+    <rPh sb="0" eb="6">
+      <t>ゲンコウキヨウギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２次交渉後起用候補</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終交渉後起用候補</t>
+    <rPh sb="0" eb="9">
+      <t>サイシュウコウショウゴキヨウコウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含む</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含まない</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\150/$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25年Request本数(割振り前)</t>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ワリフ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績の
+支払い金額</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１次BIDの
+支払い予想額</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヨソウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2次BID
+の支払い予想額</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2次BID(業者変更後)
+の支払い予想額</t>
+    <rPh sb="6" eb="8">
+      <t>ギョウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終BID(業者変更後)
+の支払い予想額</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ギョウシャヘンコウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヨソウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終交渉割り振り後
+25年Request本数</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2次交渉割り振り後
+25年Request本数</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績集計本数</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績集計金額</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①対象レーン</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②起用業者</t>
+    <rPh sb="1" eb="5">
+      <t>キヨウギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③本数前提</t>
+    <rPh sb="1" eb="5">
+      <t>ホンスウゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④為替</t>
+    <rPh sb="1" eb="3">
+      <t>カワセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>※運賃交渉の努力(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レート削減・起用業者変更等) によるコストダウン金額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)の影響を表すには不適</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ウンチン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ギョウシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>フテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額規模推移(運賃交渉参照用)のデータ比較前提</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウンチン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ヒカクゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額規模推移(実データ)のデータ比較前提</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ヒカクゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　 ⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実績</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BIDデータ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で運賃交渉の①対象レーン・②起用業者・③本数前提・④為替の前提が違うため自助努力以外の部分も金額変化に表れる</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ウンチンコウショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>キヨウギョウシャ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カワセ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ジジョドリョク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>キンガクヘンカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価×本数</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日次実績TTMレート</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1次BID</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績(運賃交渉用)</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ウンチンコウショウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#DIV/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①対象レーン②起用業者③本数前提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>について・・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1次BIDの前提に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合わせ、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実績単価</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>金額規模が算出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されるような</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>運賃交渉用実績データ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を作成した (下記参照)</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>キヨウギョウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ホンスウゼンテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>キンガクキボ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="54" eb="59">
+      <t>ウンチンコウショウヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>カキサンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>※運賃交渉用のデータ・・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実績</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BIDデータ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で①対象レーン・②起用業者・③本数前提・④為替の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>前提をそろえ、運賃交渉の努力だけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>での</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>金額推移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表す</t>
+    </r>
+    <rPh sb="1" eb="6">
+      <t>ウンチンコウショウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>キヨウギョウシャ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ホンスウゼンテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カワセ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>ウンチンコウショウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>キンガクスイイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績使用業者</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運賃交渉比較用
+実績支払金額</t>
+    <rPh sb="0" eb="2">
+      <t>ウンチン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="14">
+      <t>ジッセキシハライキンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※実データの推移</t>
+    <rPh sb="1" eb="2">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>BID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>SPOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>入っていないため、支払い予想額として見る際は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>SPOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>比率必要があると思います</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ヨソウガク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 実績のTOエリア毎のSPOT比率を算出して、それをかけるのでもよいのではないでしょうかとのこと</t>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>※④</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>為替</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>について・・実績金額に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>×150/日次TTM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レート(24/5~25/2)を行った</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>カワセ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ジッセキキンガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績データ年月</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次TTM</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額規模
+×150/日次TTM</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;メモ＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュボード一覧表みたいなところに、データ格納場所のフォルダパス書こう</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>カクノウバショ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報基盤・・企業や組織がデータを活用して効率よく意思決定を行うための土台</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウキバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本業務は情報基盤の一環・・</t>
+    <rPh sb="0" eb="3">
+      <t>ホンギョウム</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ジョウホウキバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIツール（Tableau）を使ってデータを可視化・共有し、関係者がいつでも最新情報にアクセスできる仕組みを整備。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それにより、現場の迅速な意思決定をサポートする。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -604,7 +1734,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,8 +1805,49 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="UD Digi Kyokasho NK-B"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,8 +1926,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -981,6 +2200,300 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -990,7 +2503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,9 +2564,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,9 +2588,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,15 +2595,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,10 +2606,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,8 +2693,266 @@
     <xf numFmtId="38" fontId="7" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1210,10 +2963,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFDDDD"/>
+      <color rgb="FFE5E5FF"/>
       <color rgb="FFCCFFFF"/>
-      <color rgb="FFE5E5FF"/>
       <color rgb="FFCCCCFF"/>
-      <color rgb="FFFFDDDD"/>
       <color rgb="FFFFFBFF"/>
     </mruColors>
   </colors>
@@ -1528,6 +3283,133 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>540854</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A7808B-8A3D-48D1-51F5-76FA934322E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10759596" y="4537895"/>
+          <a:ext cx="8293376" cy="1826560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1192305</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32BE20C-9449-FF93-4CAD-468D04A75549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10735235" y="6914030"/>
+          <a:ext cx="5685864" cy="1967753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2195,64 +4077,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2560,10 +4442,10 @@
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
-      <c r="O9" s="20">
+      <c r="O9" s="17">
         <v>5000</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="17">
         <v>2000</v>
       </c>
       <c r="Q9" s="17">
@@ -2619,10 +4501,10 @@
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="20">
+      <c r="O10" s="17">
         <v>3000</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="17">
         <v>1000</v>
       </c>
       <c r="Q10" s="17">
@@ -2678,10 +4560,10 @@
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="O11" s="20">
+      <c r="O11" s="17">
         <v>5000</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="17">
         <v>2000</v>
       </c>
       <c r="Q11" s="17">
@@ -2737,10 +4619,10 @@
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="20">
+      <c r="O12" s="17">
         <v>4000</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="17">
         <v>1000</v>
       </c>
       <c r="Q12" s="17">
@@ -2908,10 +4790,10 @@
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="20">
+      <c r="O15" s="17">
         <v>4000</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="17">
         <v>2000</v>
       </c>
       <c r="Q15" s="17">
@@ -2967,10 +4849,10 @@
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="20">
+      <c r="O16" s="17">
         <v>2500</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="17">
         <v>1000</v>
       </c>
       <c r="Q16" s="17">
@@ -3026,10 +4908,10 @@
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-      <c r="O17" s="20">
+      <c r="O17" s="17">
         <v>5000</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="17">
         <v>1000</v>
       </c>
       <c r="Q17" s="17">
@@ -3085,10 +4967,10 @@
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="20">
+      <c r="O18" s="17">
         <v>3000</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="17">
         <v>1000</v>
       </c>
       <c r="Q18" s="17">
@@ -3861,58 +5743,58 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B32" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="22" t="s">
+      <c r="B32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="22" t="s">
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="O32" s="22" t="s">
+      <c r="O32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="P32" s="22" t="s">
+      <c r="P32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="R32" s="22" t="s">
+      <c r="Q32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="R32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="S32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="T32" s="32"/>
-      <c r="U32" s="23" t="s">
+      <c r="S32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="T32" s="30"/>
+      <c r="U32" s="22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3926,8 +5808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C9ED1C-B75B-46BE-A940-1CC4ECC264BB}">
   <dimension ref="B2:AE35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL21" sqref="AL21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -3946,13 +5828,13 @@
     <col min="15" max="15" width="13.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="12.125" style="11" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="12.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="13.375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.375" style="42" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="12.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="12.375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" style="42" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="13.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.875" style="48" customWidth="1"/>
-    <col min="23" max="23" width="16.75" style="48" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.875" style="48" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.875" style="42" customWidth="1"/>
+    <col min="23" max="23" width="16.75" style="42" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.875" style="42" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="9" style="10"/>
     <col min="26" max="26" width="12" style="10" customWidth="1"/>
     <col min="27" max="28" width="4.75" style="10" bestFit="1" customWidth="1"/>
@@ -3962,417 +5844,417 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="W2" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="55" t="s">
+      <c r="X2" s="49" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13">
         <v>100</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="13">
         <v>150</v>
       </c>
-      <c r="R3" s="43">
+      <c r="R3" s="37">
         <v>220500000</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="13">
         <v>147</v>
       </c>
-      <c r="T3" s="50">
+      <c r="T3" s="44">
         <f>R3/S3</f>
         <v>1500000</v>
       </c>
-      <c r="U3" s="41">
+      <c r="U3" s="35">
         <v>200</v>
       </c>
-      <c r="V3" s="65">
+      <c r="V3" s="59">
         <v>1000000</v>
       </c>
-      <c r="W3" s="56">
+      <c r="W3" s="50">
         <f>X3*Q3</f>
         <v>675000000</v>
       </c>
-      <c r="X3" s="57">
+      <c r="X3" s="51">
         <f>T3*( (T3/P3)/(V3/U3) )</f>
         <v>4500000</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17">
         <v>200</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <v>150</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="38">
         <v>294000000</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <v>147</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="45">
         <f t="shared" ref="T4:T6" si="0">R4/S4</f>
         <v>2000000</v>
       </c>
-      <c r="U4" s="42">
+      <c r="U4" s="36">
         <v>400</v>
       </c>
-      <c r="V4" s="66">
+      <c r="V4" s="60">
         <v>1000000</v>
       </c>
-      <c r="W4" s="58">
+      <c r="W4" s="52">
         <f t="shared" ref="W4:W6" si="1">X4*Q4</f>
         <v>1200000000</v>
       </c>
-      <c r="X4" s="59">
-        <f t="shared" ref="X4:X7" si="2">T4*(T4/P4)/(V4/U4)</f>
+      <c r="X4" s="53">
+        <f t="shared" ref="X4:X6" si="2">T4*(T4/P4)/(V4/U4)</f>
         <v>8000000</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18">
         <v>150</v>
       </c>
-      <c r="R5" s="63"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="42">
+      <c r="T5" s="58"/>
+      <c r="U5" s="36">
         <v>800</v>
       </c>
-      <c r="V5" s="66">
+      <c r="V5" s="60">
         <v>4000000</v>
       </c>
-      <c r="W5" s="58">
+      <c r="W5" s="52">
         <f t="shared" si="1"/>
         <v>600000000</v>
       </c>
-      <c r="X5" s="68">
+      <c r="X5" s="62">
         <v>4000000</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17">
         <v>600</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="17">
         <v>150</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="38">
         <v>75000000</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="17">
         <v>150</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="45">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="U6" s="42">
+      <c r="U6" s="36">
         <v>200</v>
       </c>
-      <c r="V6" s="66">
+      <c r="V6" s="60">
         <v>500000</v>
       </c>
-      <c r="W6" s="58">
+      <c r="W6" s="52">
         <f t="shared" si="1"/>
         <v>25000000.000000004</v>
       </c>
-      <c r="X6" s="59">
+      <c r="X6" s="53">
         <f t="shared" si="2"/>
         <v>166666.66666666669</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="20" t="s">
+      <c r="B7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="66" t="s">
+      <c r="R7" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="X7" s="59" t="s">
+      <c r="W7" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B8" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="20" t="s">
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" s="66" t="s">
+      <c r="R8" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="X8" s="59" t="s">
+      <c r="W8" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="53" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4386,16 +6268,16 @@
       <c r="D9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="31" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="17">
@@ -4409,10 +6291,10 @@
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="20">
+      <c r="N9" s="17">
         <v>5000</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="17">
         <v>2000</v>
       </c>
       <c r="P9" s="17">
@@ -4422,26 +6304,26 @@
       <c r="Q9" s="17">
         <v>150</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="40">
         <f>T9*Q9</f>
         <v>150000000</v>
       </c>
       <c r="S9" s="18"/>
-      <c r="T9" s="52">
+      <c r="T9" s="46">
         <f>(J9*N9)+(K9*O9)</f>
         <v>1000000</v>
       </c>
-      <c r="U9" s="36">
+      <c r="U9" s="31">
         <f>J9+K9</f>
         <v>200</v>
       </c>
-      <c r="V9" s="60">
+      <c r="V9" s="54">
         <v>1000000</v>
       </c>
-      <c r="W9" s="58">
+      <c r="W9" s="52">
         <v>150000000</v>
       </c>
-      <c r="X9" s="58">
+      <c r="X9" s="52">
         <v>1000000</v>
       </c>
     </row>
@@ -4455,16 +6337,16 @@
       <c r="D10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="31" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="17">
@@ -4478,10 +6360,10 @@
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="20">
+      <c r="N10" s="17">
         <v>3000</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="17">
         <v>1000</v>
       </c>
       <c r="P10" s="17">
@@ -4491,26 +6373,26 @@
       <c r="Q10" s="17">
         <v>150</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="40">
         <f t="shared" ref="R10:R12" si="4">T10*Q10</f>
         <v>150000000</v>
       </c>
       <c r="S10" s="18"/>
-      <c r="T10" s="52">
+      <c r="T10" s="46">
         <f>(J10*N10)+(K10*O10)</f>
         <v>1000000</v>
       </c>
-      <c r="U10" s="36">
+      <c r="U10" s="31">
         <f t="shared" ref="U10:U12" si="5">J10+K10</f>
         <v>400</v>
       </c>
-      <c r="V10" s="60">
+      <c r="V10" s="54">
         <v>1000000</v>
       </c>
-      <c r="W10" s="58">
+      <c r="W10" s="52">
         <v>150000000</v>
       </c>
-      <c r="X10" s="58">
+      <c r="X10" s="52">
         <v>1000000</v>
       </c>
     </row>
@@ -4524,16 +6406,16 @@
       <c r="D11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="31" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="17">
@@ -4547,10 +6429,10 @@
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="20">
+      <c r="N11" s="17">
         <v>5000</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="17">
         <v>2000</v>
       </c>
       <c r="P11" s="17">
@@ -4560,26 +6442,26 @@
       <c r="Q11" s="17">
         <v>150</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="40">
         <f t="shared" si="4"/>
         <v>600000000</v>
       </c>
       <c r="S11" s="18"/>
-      <c r="T11" s="52">
+      <c r="T11" s="46">
         <f>(J11*N11)+(K11*O11)</f>
         <v>4000000</v>
       </c>
-      <c r="U11" s="36">
+      <c r="U11" s="31">
         <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="V11" s="60">
+      <c r="V11" s="54">
         <v>4000000</v>
       </c>
-      <c r="W11" s="58">
+      <c r="W11" s="52">
         <v>600000000</v>
       </c>
-      <c r="X11" s="58">
+      <c r="X11" s="52">
         <v>4000000</v>
       </c>
     </row>
@@ -4593,16 +6475,16 @@
       <c r="D12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="31" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="17">
@@ -4616,10 +6498,10 @@
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="20">
+      <c r="N12" s="17">
         <v>4000</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="17">
         <v>1000</v>
       </c>
       <c r="P12" s="17">
@@ -4629,26 +6511,26 @@
       <c r="Q12" s="17">
         <v>150</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="40">
         <f t="shared" si="4"/>
         <v>75000000</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="T12" s="52">
+      <c r="T12" s="46">
         <f>(J12*N12)+(K12*O12)</f>
         <v>500000</v>
       </c>
-      <c r="U12" s="36">
+      <c r="U12" s="31">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="V12" s="60">
+      <c r="V12" s="54">
         <v>500000</v>
       </c>
-      <c r="W12" s="58">
+      <c r="W12" s="52">
         <v>75000000</v>
       </c>
-      <c r="X12" s="58">
+      <c r="X12" s="52">
         <v>500000</v>
       </c>
     </row>
@@ -4662,16 +6544,16 @@
       <c r="D13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="36" t="s">
+      <c r="E13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I13" s="17" t="s">
@@ -4697,23 +6579,23 @@
       <c r="Q13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="46" t="s">
+      <c r="R13" s="40" t="s">
         <v>62</v>
       </c>
       <c r="S13" s="18"/>
-      <c r="T13" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13" s="60" t="s">
+      <c r="T13" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="W13" s="58" t="s">
+      <c r="W13" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="X13" s="58" t="s">
+      <c r="X13" s="52" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4727,16 +6609,16 @@
       <c r="D14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="36" t="s">
+      <c r="E14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="17" t="s">
@@ -4762,23 +6644,23 @@
       <c r="Q14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="R14" s="46" t="s">
+      <c r="R14" s="40" t="s">
         <v>62</v>
       </c>
       <c r="S14" s="18"/>
-      <c r="T14" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" s="60" t="s">
+      <c r="T14" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="W14" s="60" t="s">
+      <c r="W14" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="X14" s="60" t="s">
+      <c r="X14" s="54" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4792,10 +6674,10 @@
       <c r="D15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G15" s="17" t="s">
@@ -4815,10 +6697,10 @@
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="20">
+      <c r="N15" s="17">
         <v>4000</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="17">
         <v>2000</v>
       </c>
       <c r="P15" s="17">
@@ -4828,12 +6710,12 @@
       <c r="Q15" s="17">
         <v>150</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="40">
         <f>T15*Q15</f>
         <v>108000000</v>
       </c>
       <c r="S15" s="18"/>
-      <c r="T15" s="52">
+      <c r="T15" s="46">
         <f>(J15*N15)+(K15*O15)</f>
         <v>720000</v>
       </c>
@@ -4841,11 +6723,11 @@
         <f t="shared" ref="U15:U18" si="7">J15+K15</f>
         <v>180</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="46">
+      <c r="V15" s="55"/>
+      <c r="W15" s="40">
         <v>108000000</v>
       </c>
-      <c r="X15" s="46">
+      <c r="X15" s="40">
         <v>720000</v>
       </c>
     </row>
@@ -4859,10 +6741,10 @@
       <c r="D16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>87</v>
       </c>
       <c r="G16" s="17" t="s">
@@ -4882,10 +6764,10 @@
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="20">
+      <c r="N16" s="17">
         <v>2500</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="17">
         <v>1000</v>
       </c>
       <c r="P16" s="17">
@@ -4895,12 +6777,12 @@
       <c r="Q16" s="17">
         <v>150</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="40">
         <f t="shared" ref="R16:R18" si="8">T16*Q16</f>
         <v>142500000</v>
       </c>
       <c r="S16" s="18"/>
-      <c r="T16" s="52">
+      <c r="T16" s="46">
         <f>(J16*N16)+(K16*O16)</f>
         <v>950000</v>
       </c>
@@ -4908,11 +6790,11 @@
         <f t="shared" si="7"/>
         <v>470</v>
       </c>
-      <c r="V16" s="61"/>
-      <c r="W16" s="46">
+      <c r="V16" s="55"/>
+      <c r="W16" s="40">
         <v>142500000</v>
       </c>
-      <c r="X16" s="46">
+      <c r="X16" s="40">
         <v>950000</v>
       </c>
     </row>
@@ -4926,10 +6808,10 @@
       <c r="D17" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G17" s="17" t="s">
@@ -4949,10 +6831,10 @@
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="20">
+      <c r="N17" s="17">
         <v>5000</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="17">
         <v>1000</v>
       </c>
       <c r="P17" s="17">
@@ -4962,12 +6844,12 @@
       <c r="Q17" s="17">
         <v>150</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="40">
         <f t="shared" si="8"/>
         <v>480000000</v>
       </c>
       <c r="S17" s="18"/>
-      <c r="T17" s="52">
+      <c r="T17" s="46">
         <f>(J17*N17)+(K17*O17)</f>
         <v>3200000</v>
       </c>
@@ -4975,11 +6857,11 @@
         <f t="shared" si="7"/>
         <v>800</v>
       </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="46">
+      <c r="V17" s="55"/>
+      <c r="W17" s="40">
         <v>480000000</v>
       </c>
-      <c r="X17" s="46">
+      <c r="X17" s="40">
         <v>3200000</v>
       </c>
     </row>
@@ -4993,10 +6875,10 @@
       <c r="D18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="17" t="s">
@@ -5016,10 +6898,10 @@
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="20">
+      <c r="N18" s="17">
         <v>3000</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="17">
         <v>1000</v>
       </c>
       <c r="P18" s="17">
@@ -5029,12 +6911,12 @@
       <c r="Q18" s="17">
         <v>150</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="40">
         <f t="shared" si="8"/>
         <v>60000000</v>
       </c>
       <c r="S18" s="18"/>
-      <c r="T18" s="52">
+      <c r="T18" s="46">
         <f>(J18*N18)+(K18*O18)</f>
         <v>400000</v>
       </c>
@@ -5042,11 +6924,11 @@
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="V18" s="61"/>
-      <c r="W18" s="46">
+      <c r="V18" s="55"/>
+      <c r="W18" s="40">
         <v>60000000</v>
       </c>
-      <c r="X18" s="46">
+      <c r="X18" s="40">
         <v>400000</v>
       </c>
     </row>
@@ -5060,10 +6942,10 @@
       <c r="D19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -5095,21 +6977,21 @@
       <c r="Q19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="46" t="s">
+      <c r="R19" s="40" t="s">
         <v>62</v>
       </c>
       <c r="S19" s="18"/>
-      <c r="T19" s="52" t="s">
+      <c r="T19" s="46" t="s">
         <v>62</v>
       </c>
       <c r="U19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="V19" s="61"/>
-      <c r="W19" s="46" t="s">
+      <c r="V19" s="55"/>
+      <c r="W19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="X19" s="46" t="s">
+      <c r="X19" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5123,10 +7005,10 @@
       <c r="D20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -5158,24 +7040,24 @@
       <c r="Q20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="R20" s="46" t="s">
+      <c r="R20" s="40" t="s">
         <v>62</v>
       </c>
       <c r="S20" s="18"/>
-      <c r="T20" s="52" t="s">
+      <c r="T20" s="46" t="s">
         <v>62</v>
       </c>
       <c r="U20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="V20" s="61"/>
-      <c r="W20" s="46" t="s">
+      <c r="V20" s="55"/>
+      <c r="W20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="X20" s="46" t="s">
+      <c r="X20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="Z20" s="67" t="s">
+      <c r="Z20" s="61" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5189,10 +7071,10 @@
       <c r="D21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G21" s="17" t="s">
@@ -5225,12 +7107,12 @@
       <c r="Q21" s="17">
         <v>150</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="40">
         <f>T21*Q21</f>
         <v>150000000</v>
       </c>
       <c r="S21" s="18"/>
-      <c r="T21" s="52">
+      <c r="T21" s="46">
         <f>(L21*N21)+(M21*O21)</f>
         <v>1000000</v>
       </c>
@@ -5238,11 +7120,11 @@
         <f>L21+M21</f>
         <v>300</v>
       </c>
-      <c r="V21" s="61"/>
-      <c r="W21" s="46">
+      <c r="V21" s="55"/>
+      <c r="W21" s="40">
         <v>150000000</v>
       </c>
-      <c r="X21" s="46">
+      <c r="X21" s="40">
         <v>1000000</v>
       </c>
     </row>
@@ -5256,10 +7138,10 @@
       <c r="D22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="17" t="s">
         <v>87</v>
       </c>
       <c r="G22" s="17" t="s">
@@ -5292,12 +7174,12 @@
       <c r="Q22" s="17">
         <v>150</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="40">
         <f t="shared" ref="R22:R24" si="10">T22*Q22</f>
         <v>232500000</v>
       </c>
       <c r="S22" s="18"/>
-      <c r="T22" s="52">
+      <c r="T22" s="46">
         <f>(L22*N22)+(M22*O22)</f>
         <v>1550000</v>
       </c>
@@ -5305,11 +7187,11 @@
         <f t="shared" ref="U22:U24" si="11">L22+M22</f>
         <v>650</v>
       </c>
-      <c r="V22" s="61"/>
-      <c r="W22" s="46">
+      <c r="V22" s="55"/>
+      <c r="W22" s="40">
         <v>232500000</v>
       </c>
-      <c r="X22" s="46">
+      <c r="X22" s="40">
         <v>1550000</v>
       </c>
     </row>
@@ -5323,10 +7205,10 @@
       <c r="D23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G23" s="17" t="s">
@@ -5359,12 +7241,12 @@
       <c r="Q23" s="17">
         <v>150</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="40">
         <f t="shared" si="10"/>
         <v>540000000</v>
       </c>
       <c r="S23" s="18"/>
-      <c r="T23" s="52">
+      <c r="T23" s="46">
         <f>(L23*N23)+(M23*O23)</f>
         <v>3600000</v>
       </c>
@@ -5372,11 +7254,11 @@
         <f t="shared" si="11"/>
         <v>800</v>
       </c>
-      <c r="V23" s="61"/>
-      <c r="W23" s="46">
+      <c r="V23" s="55"/>
+      <c r="W23" s="40">
         <v>540000000</v>
       </c>
-      <c r="X23" s="46">
+      <c r="X23" s="40">
         <v>3600000</v>
       </c>
     </row>
@@ -5390,10 +7272,10 @@
       <c r="D24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="17" t="s">
@@ -5426,12 +7308,12 @@
       <c r="Q24" s="17">
         <v>150</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24" s="40">
         <f t="shared" si="10"/>
         <v>165000000</v>
       </c>
       <c r="S24" s="18"/>
-      <c r="T24" s="52">
+      <c r="T24" s="46">
         <f>(L24*N24)+(M24*O24)</f>
         <v>1100000</v>
       </c>
@@ -5439,11 +7321,11 @@
         <f t="shared" si="11"/>
         <v>500</v>
       </c>
-      <c r="V24" s="61"/>
-      <c r="W24" s="46">
+      <c r="V24" s="55"/>
+      <c r="W24" s="40">
         <v>165000000</v>
       </c>
-      <c r="X24" s="46">
+      <c r="X24" s="40">
         <v>1100000</v>
       </c>
     </row>
@@ -5457,10 +7339,10 @@
       <c r="D25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="17" t="s">
@@ -5492,21 +7374,21 @@
       <c r="Q25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R25" s="46" t="s">
+      <c r="R25" s="40" t="s">
         <v>62</v>
       </c>
       <c r="S25" s="18"/>
-      <c r="T25" s="52" t="s">
+      <c r="T25" s="46" t="s">
         <v>62</v>
       </c>
       <c r="U25" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="V25" s="61"/>
-      <c r="W25" s="46" t="s">
+      <c r="V25" s="55"/>
+      <c r="W25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="X25" s="46" t="s">
+      <c r="X25" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5520,10 +7402,10 @@
       <c r="D26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="17" t="s">
@@ -5555,21 +7437,21 @@
       <c r="Q26" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R26" s="46" t="s">
+      <c r="R26" s="40" t="s">
         <v>62</v>
       </c>
       <c r="S26" s="18"/>
-      <c r="T26" s="52" t="s">
+      <c r="T26" s="46" t="s">
         <v>62</v>
       </c>
       <c r="U26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="V26" s="61"/>
-      <c r="W26" s="46" t="s">
+      <c r="V26" s="55"/>
+      <c r="W26" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="X26" s="46" t="s">
+      <c r="X26" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5583,10 +7465,10 @@
       <c r="D27" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G27" s="17" t="s">
@@ -5619,12 +7501,12 @@
       <c r="Q27" s="17">
         <v>150</v>
       </c>
-      <c r="R27" s="46">
+      <c r="R27" s="40">
         <f t="shared" ref="R27:R30" si="13">T27*Q27</f>
         <v>150000000</v>
       </c>
       <c r="S27" s="18"/>
-      <c r="T27" s="52">
+      <c r="T27" s="46">
         <f t="shared" ref="T27:T30" si="14">(L27*N27)+(M27*O27)</f>
         <v>1000000</v>
       </c>
@@ -5632,11 +7514,11 @@
         <f>L27+M27</f>
         <v>300</v>
       </c>
-      <c r="V27" s="61"/>
-      <c r="W27" s="46">
+      <c r="V27" s="55"/>
+      <c r="W27" s="40">
         <v>150000000</v>
       </c>
-      <c r="X27" s="46">
+      <c r="X27" s="40">
         <v>1000000</v>
       </c>
     </row>
@@ -5650,10 +7532,10 @@
       <c r="D28" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="17" t="s">
         <v>87</v>
       </c>
       <c r="G28" s="17" t="s">
@@ -5686,12 +7568,12 @@
       <c r="Q28" s="17">
         <v>150</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="40">
         <f t="shared" si="13"/>
         <v>187500000</v>
       </c>
       <c r="S28" s="18"/>
-      <c r="T28" s="52">
+      <c r="T28" s="46">
         <f t="shared" si="14"/>
         <v>1250000</v>
       </c>
@@ -5699,11 +7581,11 @@
         <f t="shared" ref="U28:U30" si="15">L28+M28</f>
         <v>650</v>
       </c>
-      <c r="V28" s="61"/>
-      <c r="W28" s="46">
+      <c r="V28" s="55"/>
+      <c r="W28" s="40">
         <v>187500000</v>
       </c>
-      <c r="X28" s="46">
+      <c r="X28" s="40">
         <v>1250000</v>
       </c>
     </row>
@@ -5717,10 +7599,10 @@
       <c r="D29" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G29" s="17" t="s">
@@ -5753,12 +7635,12 @@
       <c r="Q29" s="17">
         <v>150</v>
       </c>
-      <c r="R29" s="46">
+      <c r="R29" s="40">
         <f t="shared" si="13"/>
         <v>367500000</v>
       </c>
       <c r="S29" s="18"/>
-      <c r="T29" s="52">
+      <c r="T29" s="46">
         <f t="shared" si="14"/>
         <v>2450000</v>
       </c>
@@ -5766,11 +7648,11 @@
         <f t="shared" si="15"/>
         <v>700</v>
       </c>
-      <c r="V29" s="61"/>
-      <c r="W29" s="46">
+      <c r="V29" s="55"/>
+      <c r="W29" s="40">
         <v>367500000</v>
       </c>
-      <c r="X29" s="46">
+      <c r="X29" s="40">
         <v>2450000</v>
       </c>
     </row>
@@ -5784,10 +7666,10 @@
       <c r="D30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G30" s="17" t="s">
@@ -5820,12 +7702,12 @@
       <c r="Q30" s="17">
         <v>150</v>
       </c>
-      <c r="R30" s="46">
+      <c r="R30" s="40">
         <f t="shared" si="13"/>
         <v>120000000</v>
       </c>
       <c r="S30" s="18"/>
-      <c r="T30" s="52">
+      <c r="T30" s="46">
         <f t="shared" si="14"/>
         <v>800000</v>
       </c>
@@ -5833,11 +7715,11 @@
         <f t="shared" si="15"/>
         <v>500</v>
       </c>
-      <c r="V30" s="61"/>
-      <c r="W30" s="46">
+      <c r="V30" s="55"/>
+      <c r="W30" s="40">
         <v>120000000</v>
       </c>
-      <c r="X30" s="46">
+      <c r="X30" s="40">
         <v>800000</v>
       </c>
     </row>
@@ -5851,10 +7733,10 @@
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -5886,84 +7768,84 @@
       <c r="Q31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R31" s="46" t="s">
+      <c r="R31" s="40" t="s">
         <v>62</v>
       </c>
       <c r="S31" s="18"/>
-      <c r="T31" s="52" t="s">
+      <c r="T31" s="46" t="s">
         <v>62</v>
       </c>
       <c r="U31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="V31" s="61"/>
-      <c r="W31" s="46" t="s">
+      <c r="V31" s="55"/>
+      <c r="W31" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="X31" s="46" t="s">
+      <c r="X31" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B32" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="69" t="s">
+      <c r="B32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="22" t="s">
+      <c r="G32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="22" t="s">
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="O32" s="22" t="s">
+      <c r="O32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="P32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q32" s="22" t="s">
+      <c r="P32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="R32" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="S32" s="32"/>
-      <c r="T32" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="U32" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="V32" s="62"/>
-      <c r="W32" s="47" t="s">
+      <c r="R32" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="S32" s="30"/>
+      <c r="T32" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="V32" s="56"/>
+      <c r="W32" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="X32" s="47" t="s">
+      <c r="X32" s="41" t="s">
         <v>61</v>
       </c>
       <c r="Z32" s="11" t="s">
@@ -6006,12 +7888,12 @@
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="32" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6021,4 +7903,1125 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E29D48-DD9A-4883-9616-A89C3E7ABC9A}">
+  <dimension ref="B2:V22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:V22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="11" customWidth="1"/>
+    <col min="14" max="14" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="11" customWidth="1"/>
+    <col min="16" max="16" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.75" style="10" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B2" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="H2" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="114"/>
+      <c r="N2" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="118"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E4" s="17">
+        <v>30</v>
+      </c>
+      <c r="F4" s="81">
+        <f>D4/E4</f>
+        <v>400</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="17">
+        <f>K4*L4</f>
+        <v>30000</v>
+      </c>
+      <c r="K4" s="89">
+        <v>60</v>
+      </c>
+      <c r="L4" s="19">
+        <v>500</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="17">
+        <f>Q4*R4</f>
+        <v>24000</v>
+      </c>
+      <c r="Q4" s="89">
+        <v>60</v>
+      </c>
+      <c r="R4" s="81">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="17">
+        <v>24000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>60</v>
+      </c>
+      <c r="F5" s="81">
+        <f t="shared" ref="F5:F6" si="0">D5/E5</f>
+        <v>400</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:J7" si="1">K5*L5</f>
+        <v>12000</v>
+      </c>
+      <c r="K5" s="89">
+        <v>60</v>
+      </c>
+      <c r="L5" s="19">
+        <v>200</v>
+      </c>
+      <c r="N5" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" ref="P5:P6" si="2">Q5*R5</f>
+        <v>24000</v>
+      </c>
+      <c r="Q5" s="89">
+        <v>60</v>
+      </c>
+      <c r="R5" s="81">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="17">
+        <v>72000</v>
+      </c>
+      <c r="E6" s="17">
+        <v>90</v>
+      </c>
+      <c r="F6" s="81">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="K6" s="89">
+        <v>60</v>
+      </c>
+      <c r="L6" s="19">
+        <v>400</v>
+      </c>
+      <c r="N6" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
+      <c r="Q6" s="89">
+        <v>60</v>
+      </c>
+      <c r="R6" s="81">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="K7" s="89">
+        <v>40</v>
+      </c>
+      <c r="L7" s="19">
+        <v>300</v>
+      </c>
+      <c r="N7" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="17">
+        <v>12000</v>
+      </c>
+      <c r="Q7" s="89">
+        <v>40</v>
+      </c>
+      <c r="R7" s="81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="81"/>
+      <c r="H8" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="19"/>
+      <c r="N8" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="88"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="81"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="81"/>
+      <c r="H9" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="88"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="19"/>
+      <c r="N9" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="88"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="81"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="84"/>
+      <c r="H10" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="90"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="22"/>
+      <c r="N10" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="90"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="84"/>
+    </row>
+    <row r="14" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N14" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="121"/>
+    </row>
+    <row r="15" spans="2:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="N15" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="V15" s="101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="N16" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="17">
+        <f>Q16*R16</f>
+        <v>24000</v>
+      </c>
+      <c r="Q16" s="89">
+        <v>60</v>
+      </c>
+      <c r="R16" s="81">
+        <v>400</v>
+      </c>
+      <c r="T16" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="U16" s="103">
+        <v>152</v>
+      </c>
+      <c r="V16" s="104">
+        <f>P16*150/U16</f>
+        <v>23684.21052631579</v>
+      </c>
+    </row>
+    <row r="17" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N17" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" ref="P17:P18" si="3">Q17*R17</f>
+        <v>24000</v>
+      </c>
+      <c r="Q17" s="89">
+        <v>60</v>
+      </c>
+      <c r="R17" s="81">
+        <v>400</v>
+      </c>
+      <c r="T17" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="U17" s="103">
+        <v>152</v>
+      </c>
+      <c r="V17" s="104">
+        <f t="shared" ref="V17:V19" si="4">P17*150/U17</f>
+        <v>23684.21052631579</v>
+      </c>
+    </row>
+    <row r="18" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N18" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="3"/>
+        <v>48000</v>
+      </c>
+      <c r="Q18" s="89">
+        <v>60</v>
+      </c>
+      <c r="R18" s="81">
+        <v>800</v>
+      </c>
+      <c r="T18" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="U18" s="103">
+        <v>152</v>
+      </c>
+      <c r="V18" s="104">
+        <f t="shared" si="4"/>
+        <v>47368.42105263158</v>
+      </c>
+    </row>
+    <row r="19" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N19" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="17">
+        <v>12000</v>
+      </c>
+      <c r="Q19" s="89">
+        <v>40</v>
+      </c>
+      <c r="R19" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="U19" s="103">
+        <v>154</v>
+      </c>
+      <c r="V19" s="104">
+        <f t="shared" si="4"/>
+        <v>11688.311688311689</v>
+      </c>
+    </row>
+    <row r="20" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N20" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="88"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="81"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="105"/>
+    </row>
+    <row r="21" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N21" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="88"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="81"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="105"/>
+    </row>
+    <row r="22" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N22" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="O22" s="90"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="N14:V14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60217E3-D8C2-4DFC-A577-ED5F97AF226C}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="B2:P35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="9.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="11" customWidth="1"/>
+    <col min="7" max="8" width="23.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="11" customWidth="1"/>
+    <col min="15" max="16" width="23.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+    </row>
+    <row r="3" spans="2:16" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="143"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="143"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="146"/>
+      <c r="D6" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="148"/>
+      <c r="H6" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="146"/>
+      <c r="L6" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="148"/>
+      <c r="P6" s="65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="142"/>
+      <c r="D7" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="148"/>
+      <c r="H7" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="142"/>
+      <c r="L7" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="125"/>
+      <c r="N7" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="148"/>
+      <c r="P7" s="65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="142"/>
+      <c r="D8" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="128"/>
+      <c r="G8" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="142"/>
+      <c r="L8" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="127"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="128"/>
+      <c r="G9" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="68"/>
+      <c r="L9" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="139"/>
+      <c r="C10" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="131"/>
+    </row>
+    <row r="11" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="140"/>
+      <c r="C11" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="134"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="134"/>
+    </row>
+    <row r="12" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="142"/>
+      <c r="D12" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="137"/>
+      <c r="J12" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="142"/>
+      <c r="L12" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+    </row>
+    <row r="13" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="123"/>
+      <c r="D13" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="137"/>
+      <c r="J13" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="123"/>
+      <c r="L13" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B15" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="J15" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B16" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="J16" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B17" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B20" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B27" s="149" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="149" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="149" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="32"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="149" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B32" s="149"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="149"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="149"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>